--- a/a_df.xlsx
+++ b/a_df.xlsx
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;0x2405e45d950 (Generator object) at 0x2405e45d950&gt;</t>
+          <t>&lt;0x185327d8410 (Generator object) at 0x185327d8410&gt;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x2405e45d950</t>
+          <t>0x185327d8410</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;Creating (State) object at 0x24061313f10&gt;</t>
+          <t>&lt;Creating (State) object at 0x185327d9e90&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
